--- a/dashboard/Data/TFEC_renewables.xlsx
+++ b/dashboard/Data/TFEC_renewables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
   <si>
     <t>COM_CWH_BIO_001</t>
   </si>
@@ -51,9 +51,6 @@
     <t>RES_CWH_BIO_001</t>
   </si>
   <si>
-    <t>RES_CWH_EL_001</t>
-  </si>
-  <si>
     <t>RES_CWH_NGS_001</t>
   </si>
   <si>
@@ -172,6 +169,12 @@
   </si>
   <si>
     <t>Renewables</t>
+  </si>
+  <si>
+    <t>RES_CWH_KER_001</t>
+  </si>
+  <si>
+    <t>RES_CWH_SOLAR</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,13 +548,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -560,123 +563,123 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -684,18 +687,18 @@
         <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
@@ -703,233 +706,244 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/Data/TFEC_renewables.xlsx
+++ b/dashboard/Data/TFEC_renewables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
   <si>
     <t>COM_CWH_BIO_001</t>
   </si>
@@ -198,9 +198,6 @@
     <t>IND_FOOD_NGS_001</t>
   </si>
   <si>
-    <t>IND_OTH_BIODSL_001</t>
-  </si>
-  <si>
     <t>IND_OTH_COA_001</t>
   </si>
   <si>
@@ -283,6 +280,12 @@
   </si>
   <si>
     <t>PWR_WND_E001</t>
+  </si>
+  <si>
+    <t>IND_OTH_BIO</t>
+  </si>
+  <si>
+    <t>TRA_CAR_NGS_001</t>
   </si>
 </sst>
 </file>
@@ -634,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -673,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -684,7 +687,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -695,7 +698,7 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -703,10 +706,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -714,10 +717,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -725,7 +728,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
@@ -733,13 +736,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -747,10 +750,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -758,10 +761,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -769,18 +772,18 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
@@ -788,35 +791,35 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -824,10 +827,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -835,10 +838,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -846,142 +849,142 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -992,7 +995,7 @@
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -1003,7 +1006,7 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -1011,10 +1014,10 @@
         <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -1022,10 +1025,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -1033,10 +1036,10 @@
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -1044,10 +1047,10 @@
         <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1055,10 +1058,10 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1066,10 +1069,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1077,10 +1080,10 @@
         <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1088,10 +1091,10 @@
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1099,10 +1102,10 @@
         <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1110,10 +1113,10 @@
         <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1121,10 +1124,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1132,10 +1135,10 @@
         <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1143,21 +1146,21 @@
         <v>15</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1165,10 +1168,10 @@
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1176,21 +1179,21 @@
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1198,10 +1201,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1209,10 +1212,10 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1220,10 +1223,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1231,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1242,21 +1245,21 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1264,10 +1267,10 @@
         <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1275,21 +1278,21 @@
         <v>14</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1297,10 +1300,10 @@
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1308,10 +1311,10 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1319,10 +1322,10 @@
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1330,10 +1333,10 @@
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1341,10 +1344,10 @@
         <v>10</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1352,10 +1355,10 @@
         <v>10</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1363,10 +1366,10 @@
         <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1374,10 +1377,10 @@
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1388,7 +1391,7 @@
         <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1399,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1410,18 +1413,29 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
